--- a/XING_MAT32901 - Mat Siemens/XING_MAT32901_A0 - Mat Siemens.xlsx
+++ b/XING_MAT32901 - Mat Siemens/XING_MAT32901_A0 - Mat Siemens.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRJ\Documents\GitHub\RepoX329\XING_MAT32901 - Mat Siemens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256C8B24-9820-466F-88B3-99496F304536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FC52AA-C4CD-4AAB-81D9-FA41CDEBBEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12315" yWindow="8085" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SING_SET32901_A0" sheetId="1" r:id="rId1"/>
+    <sheet name="Menores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <webPublishing codePage="1250"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Nombre</t>
   </si>
@@ -66,27 +67,177 @@
   </si>
   <si>
     <t>6ES7223-1BL32-0XB0</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Cant.</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Precio Unitario</t>
+  </si>
+  <si>
+    <t>Precio Total</t>
+  </si>
+  <si>
+    <t>Borne BPN2.5</t>
+  </si>
+  <si>
+    <t>Borne 4mm, tierra</t>
+  </si>
+  <si>
+    <t>BorneBPN2.5</t>
+  </si>
+  <si>
+    <t>Borne rele</t>
+  </si>
+  <si>
+    <t>Borne fusible</t>
+  </si>
+  <si>
+    <t>fusible</t>
+  </si>
+  <si>
+    <t>tomacorrientes</t>
+  </si>
+  <si>
+    <t>extremo bornera</t>
+  </si>
+  <si>
+    <t>etiquetado bornera</t>
+  </si>
+  <si>
+    <t>termica bipolar</t>
+  </si>
+  <si>
+    <t>riel din</t>
+  </si>
+  <si>
+    <t>utp</t>
+  </si>
+  <si>
+    <t>rj45</t>
+  </si>
+  <si>
+    <t>capuchon rj45</t>
+  </si>
+  <si>
+    <t>marron1,5</t>
+  </si>
+  <si>
+    <t>celeste1,5</t>
+  </si>
+  <si>
+    <t>tierra1,5</t>
+  </si>
+  <si>
+    <t>rojo1,5</t>
+  </si>
+  <si>
+    <t>blanco1,5</t>
+  </si>
+  <si>
+    <t>negro0,75</t>
+  </si>
+  <si>
+    <t>bulonería para tablero?</t>
+  </si>
+  <si>
+    <t>puente</t>
+  </si>
+  <si>
+    <t>1911/12</t>
+  </si>
+  <si>
+    <t>termica unipolar 2A</t>
+  </si>
+  <si>
+    <t>termica unipolar 4 A</t>
+  </si>
+  <si>
+    <t>cablecanal 15*30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000\ &quot;USD&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;USD&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,14 +245,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -519,4 +719,525 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06BBD16-1D95-49BD-9154-F807CFFB0976}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>1783</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>1810</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>131</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>843</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>132</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3">
+        <v>2371</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>2373</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>154</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>2220</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>4217</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>5184</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>5185</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>191</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>199</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <v>177</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>